--- a/data/timekettle_api_testcase.xlsx
+++ b/data/timekettle_api_testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17700" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="169">
   <si>
     <t>用例编号</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>数据库断言</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 判断是否存在邮箱（存在）</t>
   </si>
   <si>
     <t>post</t>
@@ -1886,7 +1889,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1907,16 +1923,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1924,13 +1934,6 @@
       <color theme="9"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -3194,9 +3197,9 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.1851851851852" defaultRowHeight="51" customHeight="1"/>
@@ -3254,25 +3257,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="6"/>
@@ -3283,25 +3286,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3311,28 +3314,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -3341,22 +3344,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:11">
@@ -3364,22 +3367,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:11">
@@ -3390,19 +3393,19 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -3410,22 +3413,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:11">
@@ -3433,22 +3436,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
@@ -3456,22 +3459,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
@@ -3479,22 +3482,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
@@ -3502,22 +3505,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
@@ -3525,25 +3528,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
@@ -3551,25 +3554,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
@@ -3577,22 +3580,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:11">
@@ -3600,22 +3603,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" ht="114" customHeight="1" spans="1:9">
@@ -3623,25 +3626,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
@@ -3649,22 +3652,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="95" customHeight="1" spans="1:9">
@@ -3672,19 +3675,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="73" customHeight="1" spans="1:9">
@@ -3692,28 +3695,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="89" customHeight="1" spans="1:9">
@@ -3721,25 +3724,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:9">
@@ -3747,25 +3750,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:9">
@@ -3773,25 +3776,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
@@ -3799,25 +3802,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:9">
@@ -3825,25 +3828,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:9">
@@ -3851,25 +3854,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:9">
@@ -3877,25 +3880,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:9">
@@ -3903,22 +3906,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:9">
@@ -3926,22 +3929,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
@@ -3949,22 +3952,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:9">
@@ -3972,22 +3975,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:9">
@@ -3995,25 +3998,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -4021,28 +4024,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:9">
@@ -4050,25 +4053,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:9">
@@ -4076,22 +4079,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
@@ -4099,22 +4102,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:9">
@@ -4122,22 +4125,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:9">
@@ -4145,25 +4148,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
@@ -4171,25 +4174,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:9">
@@ -4197,25 +4200,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:9">
@@ -4223,22 +4226,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
@@ -4246,22 +4249,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:9">
@@ -4269,25 +4272,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:9">
@@ -4295,25 +4298,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
